--- a/biology/Biologie cellulaire et moléculaire/BamHI/BamHI.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BamHI/BamHI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">BamHI (Bam « H » un) est une enzyme de restriction produite par la souche bactérienne Bacillus amyloliquefaciens, reconnaissant des courtes séquence d'ADN (6 paires de bases) et réalisant leur clivage de manière spécifique sur un site cible. L'enzyme génère des extremités cohésives aux extrémités 5' de l'ADN.
 Son site de reconnaissance est le suivant :
